--- a/ProjectDocuments/Nhom13/Template_BangDanhGiaThanhVien.xlsx
+++ b/ProjectDocuments/Nhom13/Template_BangDanhGiaThanhVien.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -201,7 +201,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -245,6 +245,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -545,7 +546,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -789,13 +790,27 @@
       <c r="D14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="14"/>
@@ -808,13 +823,27 @@
       <c r="D15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="17">
+        <v>1</v>
+      </c>
+      <c r="K15" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="14"/>
@@ -827,13 +856,27 @@
       <c r="D16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
+        <v>1</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" s="17">
+        <v>1</v>
+      </c>
+      <c r="K16" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="14"/>
@@ -846,13 +889,27 @@
       <c r="D17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="14"/>
@@ -865,13 +922,27 @@
       <c r="D18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <v>1</v>
+      </c>
+      <c r="K18" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="16">
